--- a/Rekap/RekapPengangguran.xlsx
+++ b/Rekap/RekapPengangguran.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Faisol\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C1EB3A-3E00-494D-BF9B-0ADCC147ED0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A14AFD8-8D5B-411F-8D79-B15EC1BC1C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{09BE31F3-3772-4CED-8D87-B174A4B82511}"/>
   </bookViews>
@@ -891,7 +891,7 @@
         <v>12.38</v>
       </c>
       <c r="D23" s="8">
-        <v>75.94</v>
+        <v>74.260000000000005</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -947,7 +947,7 @@
         <v>5.7</v>
       </c>
       <c r="D27" s="6">
-        <v>72.28</v>
+        <v>70.92</v>
       </c>
     </row>
   </sheetData>
